--- a/Question_Set2/Programming skills/ASP.NET.xlsx
+++ b/Question_Set2/Programming skills/ASP.NET.xlsx
@@ -16,23 +16,59 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Which code snippet can you use to delay the loading of related data until there is a specific request for it?', 'ques_type': 2, 'options': ['public class Book\n{\n           public Author Author { get set }\n}\nvar books = db.Books.Include(“Authors”)\nvar author = books[0].Author\n', 'public class Book\n{\n           public virtual Author Author { get set }\n}\nvar books = db.Books.Include(“Authors”)\nvar author = books[0].Author\n', 'public class Book\n{\n           public virtual Author Author { get set }\n}\nvar books = db.Books.Include(b=&amp;gtb.Author).ToList()\nvar author = books[0].Author\n', 'public class Book\n{\n           public Author Author { get set }\n}\nvar books = db.Books.ToList()\nvar author = books[0].Author\n'], 'score': 'public class Book\n{\n           public virtual Author Author { get set }\n}\nvar books = db.Books.Include(b=&amp;gtb.Author).ToList()\nvar author = books[0].Author'}, {'title': 'There is a method called GetWeatherStatistics in the ASP.NET Web API controller. You want to bind it from the following URL: /api/weather/statistics?city=Warsaw&amp;ampyear=2020Which attribute should you put before the searchConfig parameter in the code snippet below? public class Search \n{ \n   public string City { get set } \n   public int Year { get set } \n} \n \npublic WeatherController : ApiController \n{ \n   public HttpResponseMessage GetWeatherStatistics([?] Search searchConfig) { ... }\n }', 'ques_type': 2, 'options': ['FromUri', 'FromUrl', 'FromBody', 'FromCookies', 'FromParam'], 'score': 'FromUri'}, {'title': 'True or false: The following piece of code in the ConfigureServices method (Startup.cs) makes sure all requests to the application require authenticated access.services.AddAuthorization(options =&amp;gt\n   {\n       options.FallbackPolicy = new AuthorizationPolicyBuilder()\n           .RequireAuthenticatedUser()\n           .Build()\n   })', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'True'}, {'title': 'You have been asked to build a real-time stock market application that updates the price of a stock on all the client applications at the same time. Which method should you use to achieve this request?', 'ques_type': 2, 'options': ['private async Task BroadcastMarket()      \n{\n           await Hub.All.SendAsync("Price Change")\n       }\n', 'private async Task BroadcastMarket()\n       {\n           await Hub.Users.All.SendAsync("Price Change")\n       }\n', 'private async Task BroadcastMarket()\n       {\n           await Hub.Clients.All.SendAsync("Price Change")\n      }\n', 'private async Task BroadcastMarket()\n       {\n           await Hub.Clients.SendAsync("Price Change")\n       }\n'], 'score': 'private async Task BroadcastMarket()\n       {\n           await Hub.Clients.All.SendAsync("Price Change")\n      }'}]</t>
+    <t>questions = [
+    {
+        "title": "Which code snippet can you use to delay the loading of related data until there is a specific request for it?",
+        "ques_type": 2,
+        "options": [
+            "public class Book\n{\n           public Author Author { get set }\n}\nvar books = db.Books.Include(\u201cAuthors\u201d)\nvar author = books[0].Author\n",
+            "public class Book\n{\n           public virtual Author Author { get set }\n}\nvar books = db.Books.Include(\u201cAuthors\u201d)\nvar author = books[0].Author\n",
+            "public class Book\n{\n           public virtual Author Author { get set }\n}\nvar books = db.Books.Include(b=&amp;gtb.Author).ToList()\nvar author = books[0].Author\n",
+            "public class Book\n{\n           public Author Author { get set }\n}\nvar books = db.Books.ToList()\nvar author = books[0].Author\n"
+        ],
+        "score": "public class Book\n{\n           public virtual Author Author { get set }\n}\nvar books = db.Books.Include(b=&amp;gtb.Author).ToList()\nvar author = books[0].Author"
+    },
+    {
+        "title": "There is a method called GetWeatherStatistics in the ASP.NET Web API controller. You want to bind it from the following URL: /api/weather/statistics?city=Warsaw&amp;ampyear=2020Which attribute should you put before the searchConfig parameter in the code snippet below? public class Search \n{ \n   public string City { get set } \n   public int Year { get set } \n} \n \npublic WeatherController : ApiController \n{ \n   public HttpResponseMessage GetWeatherStatistics([?] Search searchConfig) { ... }\n }",
+        "ques_type": 2,
+        "options": [
+            "FromUri",
+            "FromUrl",
+            "FromBody",
+            "FromCookies",
+            "FromParam"
+        ],
+        "score": "FromUri"
+    },
+    {
+        "title": "True or false: The following piece of code in the ConfigureServices method (Startup.cs) makes sure all requests to the application require authenticated access.services.AddAuthorization(options =&amp;gt\n   {\n       options.FallbackPolicy = new AuthorizationPolicyBuilder()\n           .RequireAuthenticatedUser()\n           .Build()\n   })",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "True"
+    },
+    {
+        "title": "You have been asked to build a real-time stock market application that updates the price of a stock on all the client applications at the same time. Which method should you use to achieve this request?",
+        "ques_type": 2,
+        "options": [
+            "private async Task BroadcastMarket()      \n{\n           await Hub.All.SendAsync(\"Price Change\")\n       }\n",
+            "private async Task BroadcastMarket()\n       {\n           await Hub.Users.All.SendAsync(\"Price Change\")\n       }\n",
+            "private async Task BroadcastMarket()\n       {\n           await Hub.Clients.All.SendAsync(\"Price Change\")\n      }\n",
+            "private async Task BroadcastMarket()\n       {\n           await Hub.Clients.SendAsync(\"Price Change\")\n       }\n"
+        ],
+        "score": "private async Task BroadcastMarket()\n       {\n           await Hub.Clients.All.SendAsync(\"Price Change\")\n      }"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +92,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +392,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
